--- a/observations/orbit_plans/mtp027/nomad_mtp027_plan.xlsx
+++ b/observations/orbit_plans/mtp027/nomad_mtp027_plan.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\orbit_plans\mtp027\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0514EE2D-813D-48EC-A4E9-179EC194B242}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="575">
   <si>
     <t>#orbitType</t>
   </si>
@@ -1744,8 +1750,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1782,6 +1788,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1828,7 +1842,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1860,9 +1874,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1894,6 +1926,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2069,14 +2119,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M342"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="G116" sqref="G116"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2117,7 +2169,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>3</v>
       </c>
@@ -2134,7 +2186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2166,7 +2218,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>14</v>
       </c>
@@ -2180,7 +2232,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2215,7 +2267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>14</v>
       </c>
@@ -2229,7 +2281,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3</v>
       </c>
@@ -2246,7 +2298,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2278,7 +2330,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2313,7 +2365,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>14</v>
       </c>
@@ -2327,7 +2379,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2359,7 +2411,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>14</v>
       </c>
@@ -2373,7 +2425,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2408,7 +2460,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>14</v>
       </c>
@@ -2422,7 +2474,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2454,7 +2506,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2489,7 +2541,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>17</v>
       </c>
@@ -2506,7 +2558,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2541,7 +2593,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>14</v>
       </c>
@@ -2555,7 +2607,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>3</v>
       </c>
@@ -2572,7 +2624,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2604,7 +2656,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>14</v>
       </c>
@@ -2618,7 +2670,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2650,7 +2702,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2685,7 +2737,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2702,7 +2754,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2734,7 +2786,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>17</v>
       </c>
@@ -2751,7 +2803,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2786,7 +2838,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2818,7 +2870,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>3</v>
       </c>
@@ -2835,7 +2887,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>14</v>
       </c>
@@ -2849,7 +2901,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2881,7 +2933,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>3</v>
       </c>
@@ -2898,7 +2950,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2933,7 +2985,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2965,7 +3017,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>14</v>
       </c>
@@ -2979,7 +3031,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1</v>
       </c>
@@ -3014,7 +3066,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>14</v>
       </c>
@@ -3028,7 +3080,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1</v>
       </c>
@@ -3060,7 +3112,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>17</v>
       </c>
@@ -3077,7 +3129,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1</v>
       </c>
@@ -3112,7 +3164,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1</v>
       </c>
@@ -3147,7 +3199,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>14</v>
       </c>
@@ -3161,7 +3213,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>14</v>
       </c>
@@ -3175,7 +3227,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1</v>
       </c>
@@ -3210,7 +3262,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>14</v>
       </c>
@@ -3224,7 +3276,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1</v>
       </c>
@@ -3256,7 +3308,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>14</v>
       </c>
@@ -3270,7 +3322,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>1</v>
       </c>
@@ -3305,7 +3357,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>14</v>
       </c>
@@ -3319,7 +3371,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>1</v>
       </c>
@@ -3354,7 +3406,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>17</v>
       </c>
@@ -3371,7 +3423,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>1</v>
       </c>
@@ -3403,7 +3455,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>14</v>
       </c>
@@ -3417,7 +3469,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>3</v>
       </c>
@@ -3434,7 +3486,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>14</v>
       </c>
@@ -3448,7 +3500,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>3</v>
       </c>
@@ -3465,7 +3517,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>1</v>
       </c>
@@ -3497,7 +3549,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>1</v>
       </c>
@@ -3529,7 +3581,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>14</v>
       </c>
@@ -3543,7 +3595,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>14</v>
       </c>
@@ -3557,7 +3609,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>1</v>
       </c>
@@ -3592,7 +3644,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>14</v>
       </c>
@@ -3606,7 +3658,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>1</v>
       </c>
@@ -3641,7 +3693,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>1</v>
       </c>
@@ -3673,7 +3725,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>28</v>
       </c>
@@ -3690,7 +3742,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>14</v>
       </c>
@@ -3704,7 +3756,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>3</v>
       </c>
@@ -3721,7 +3773,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>14</v>
       </c>
@@ -3735,7 +3787,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>1</v>
       </c>
@@ -3767,7 +3819,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>14</v>
       </c>
@@ -3781,7 +3833,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>1</v>
       </c>
@@ -3816,7 +3868,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>14</v>
       </c>
@@ -3830,7 +3882,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>3</v>
       </c>
@@ -3847,7 +3899,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>1</v>
       </c>
@@ -3879,7 +3931,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>1</v>
       </c>
@@ -3914,7 +3966,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>17</v>
       </c>
@@ -3931,7 +3983,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>1</v>
       </c>
@@ -3963,7 +4015,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>14</v>
       </c>
@@ -3977,7 +4029,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>3</v>
       </c>
@@ -3994,7 +4046,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>14</v>
       </c>
@@ -4008,7 +4060,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>1</v>
       </c>
@@ -4040,7 +4092,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>14</v>
       </c>
@@ -4054,7 +4106,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>1</v>
       </c>
@@ -4089,7 +4141,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>14</v>
       </c>
@@ -4103,7 +4155,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>14</v>
       </c>
@@ -4114,7 +4166,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>14</v>
       </c>
@@ -4125,7 +4177,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>3</v>
       </c>
@@ -4142,7 +4194,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>1</v>
       </c>
@@ -4174,7 +4226,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>17</v>
       </c>
@@ -4191,7 +4243,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>1</v>
       </c>
@@ -4226,7 +4278,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>14</v>
       </c>
@@ -4240,7 +4292,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>14</v>
       </c>
@@ -4254,7 +4306,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>3</v>
       </c>
@@ -4271,7 +4323,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>1</v>
       </c>
@@ -4303,7 +4355,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>1</v>
       </c>
@@ -4338,7 +4390,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>14</v>
       </c>
@@ -4352,7 +4404,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>1</v>
       </c>
@@ -4384,7 +4436,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>3</v>
       </c>
@@ -4401,7 +4453,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>14</v>
       </c>
@@ -4415,7 +4467,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>1</v>
       </c>
@@ -4447,7 +4499,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>1</v>
       </c>
@@ -4482,7 +4534,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>17</v>
       </c>
@@ -4499,7 +4551,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>1</v>
       </c>
@@ -4531,7 +4583,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>14</v>
       </c>
@@ -4545,7 +4597,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>3</v>
       </c>
@@ -4562,7 +4614,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>14</v>
       </c>
@@ -4576,7 +4628,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>1</v>
       </c>
@@ -4611,7 +4663,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>14</v>
       </c>
@@ -4625,7 +4677,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>1</v>
       </c>
@@ -4657,7 +4709,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>3</v>
       </c>
@@ -4674,7 +4726,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>1</v>
       </c>
@@ -4706,7 +4758,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>14</v>
       </c>
@@ -4720,7 +4772,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>1</v>
       </c>
@@ -4755,7 +4807,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>17</v>
       </c>
@@ -4772,12 +4824,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116">
-        <v>3</v>
-      </c>
-      <c r="H116" t="s">
-        <v>244</v>
+        <v>14</v>
       </c>
       <c r="I116" t="s">
         <v>8</v>
@@ -4789,7 +4838,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>14</v>
       </c>
@@ -4803,7 +4852,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>14</v>
       </c>
@@ -4817,7 +4866,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>1</v>
       </c>
@@ -4852,7 +4901,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>14</v>
       </c>
@@ -4866,7 +4915,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>1</v>
       </c>
@@ -4901,7 +4950,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>1</v>
       </c>
@@ -4933,7 +4982,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>14</v>
       </c>
@@ -4947,7 +4996,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>14</v>
       </c>
@@ -4961,7 +5010,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>1</v>
       </c>
@@ -4996,7 +5045,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>17</v>
       </c>
@@ -5013,7 +5062,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>1</v>
       </c>
@@ -5048,7 +5097,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>1</v>
       </c>
@@ -5071,7 +5120,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>3</v>
       </c>
@@ -5088,7 +5137,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>1</v>
       </c>
@@ -5111,7 +5160,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>14</v>
       </c>
@@ -5125,7 +5174,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>3</v>
       </c>
@@ -5142,7 +5191,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>1</v>
       </c>
@@ -5165,7 +5214,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>1</v>
       </c>
@@ -5191,7 +5240,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>14</v>
       </c>
@@ -5205,7 +5254,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>1</v>
       </c>
@@ -5228,7 +5277,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>14</v>
       </c>
@@ -5242,7 +5291,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>1</v>
       </c>
@@ -5268,7 +5317,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>17</v>
       </c>
@@ -5285,7 +5334,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>1</v>
       </c>
@@ -5308,7 +5357,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>1</v>
       </c>
@@ -5334,7 +5383,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>14</v>
       </c>
@@ -5348,7 +5397,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>1</v>
       </c>
@@ -5374,7 +5423,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>14</v>
       </c>
@@ -5388,7 +5437,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>1</v>
       </c>
@@ -5411,7 +5460,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>14</v>
       </c>
@@ -5425,7 +5474,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>1</v>
       </c>
@@ -5451,7 +5500,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>1</v>
       </c>
@@ -5474,7 +5523,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>14</v>
       </c>
@@ -5488,7 +5537,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>1</v>
       </c>
@@ -5514,7 +5563,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>17</v>
       </c>
@@ -5531,7 +5580,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>1</v>
       </c>
@@ -5557,7 +5606,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>1</v>
       </c>
@@ -5580,7 +5629,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>14</v>
       </c>
@@ -5594,7 +5643,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>1</v>
       </c>
@@ -5620,7 +5669,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>14</v>
       </c>
@@ -5634,7 +5683,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>14</v>
       </c>
@@ -5648,7 +5697,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>1</v>
       </c>
@@ -5674,7 +5723,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>1</v>
       </c>
@@ -5697,7 +5746,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>14</v>
       </c>
@@ -5711,7 +5760,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>1</v>
       </c>
@@ -5737,7 +5786,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>14</v>
       </c>
@@ -5751,7 +5800,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>1</v>
       </c>
@@ -5774,7 +5823,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>14</v>
       </c>
@@ -5788,7 +5837,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>28</v>
       </c>
@@ -5805,7 +5854,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>14</v>
       </c>
@@ -5819,7 +5868,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>1</v>
       </c>
@@ -5845,7 +5894,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>1</v>
       </c>
@@ -5868,7 +5917,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>14</v>
       </c>
@@ -5882,7 +5931,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>1</v>
       </c>
@@ -5908,7 +5957,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>14</v>
       </c>
@@ -5922,7 +5971,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>14</v>
       </c>
@@ -5933,7 +5982,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>14</v>
       </c>
@@ -5944,7 +5993,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>1</v>
       </c>
@@ -5970,7 +6019,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>14</v>
       </c>
@@ -5984,7 +6033,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>1</v>
       </c>
@@ -6007,7 +6056,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>1</v>
       </c>
@@ -6033,7 +6082,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>17</v>
       </c>
@@ -6050,7 +6099,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>1</v>
       </c>
@@ -6076,7 +6125,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>14</v>
       </c>
@@ -6090,7 +6139,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>14</v>
       </c>
@@ -6104,7 +6153,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>1</v>
       </c>
@@ -6130,7 +6179,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>1</v>
       </c>
@@ -6153,7 +6202,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>14</v>
       </c>
@@ -6167,7 +6216,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>1</v>
       </c>
@@ -6193,7 +6242,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>14</v>
       </c>
@@ -6207,7 +6256,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>1</v>
       </c>
@@ -6230,7 +6279,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>1</v>
       </c>
@@ -6256,7 +6305,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>17</v>
       </c>
@@ -6273,7 +6322,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>1</v>
       </c>
@@ -6296,7 +6345,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>14</v>
       </c>
@@ -6310,7 +6359,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>1</v>
       </c>
@@ -6336,7 +6385,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>14</v>
       </c>
@@ -6350,7 +6399,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>3</v>
       </c>
@@ -6367,7 +6416,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>1</v>
       </c>
@@ -6390,7 +6439,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>1</v>
       </c>
@@ -6416,7 +6465,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>14</v>
       </c>
@@ -6430,7 +6479,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>1</v>
       </c>
@@ -6453,7 +6502,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>3</v>
       </c>
@@ -6470,7 +6519,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>1</v>
       </c>
@@ -6493,7 +6542,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>14</v>
       </c>
@@ -6507,7 +6556,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>1</v>
       </c>
@@ -6533,7 +6582,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>1</v>
       </c>
@@ -6556,7 +6605,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>14</v>
       </c>
@@ -6570,7 +6619,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>1</v>
       </c>
@@ -6596,7 +6645,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>14</v>
       </c>
@@ -6610,7 +6659,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>1</v>
       </c>
@@ -6633,7 +6682,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>1</v>
       </c>
@@ -6659,7 +6708,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>14</v>
       </c>
@@ -6673,7 +6722,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>14</v>
       </c>
@@ -6687,7 +6736,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>3</v>
       </c>
@@ -6704,7 +6753,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>1</v>
       </c>
@@ -6727,7 +6776,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>14</v>
       </c>
@@ -6741,7 +6790,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>1</v>
       </c>
@@ -6767,7 +6816,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>1</v>
       </c>
@@ -6790,7 +6839,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>14</v>
       </c>
@@ -6804,7 +6853,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>1</v>
       </c>
@@ -6830,7 +6879,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>14</v>
       </c>
@@ -6844,7 +6893,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>3</v>
       </c>
@@ -6861,7 +6910,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="220" spans="1:13">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>1</v>
       </c>
@@ -6884,7 +6933,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>14</v>
       </c>
@@ -6898,7 +6947,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>47</v>
       </c>
@@ -6918,7 +6967,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>1</v>
       </c>
@@ -6944,7 +6993,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>1</v>
       </c>
@@ -6967,7 +7016,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="225" spans="1:13">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>14</v>
       </c>
@@ -6981,7 +7030,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="226" spans="1:13">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>1</v>
       </c>
@@ -7007,7 +7056,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="227" spans="1:13">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>17</v>
       </c>
@@ -7024,7 +7073,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="228" spans="1:13">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>1</v>
       </c>
@@ -7047,7 +7096,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="229" spans="1:13">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>3</v>
       </c>
@@ -7064,7 +7113,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="230" spans="1:13">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>14</v>
       </c>
@@ -7078,7 +7127,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="231" spans="1:13">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>1</v>
       </c>
@@ -7101,7 +7150,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="232" spans="1:13">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>1</v>
       </c>
@@ -7127,7 +7176,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="233" spans="1:13">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>14</v>
       </c>
@@ -7141,7 +7190,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="234" spans="1:13">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>1</v>
       </c>
@@ -7164,7 +7213,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="235" spans="1:13">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>14</v>
       </c>
@@ -7178,7 +7227,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="236" spans="1:13">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>1</v>
       </c>
@@ -7204,7 +7253,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="237" spans="1:13">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>1</v>
       </c>
@@ -7227,7 +7276,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="238" spans="1:13">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>14</v>
       </c>
@@ -7241,7 +7290,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="239" spans="1:13">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>1</v>
       </c>
@@ -7267,7 +7316,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="240" spans="1:13">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>17</v>
       </c>
@@ -7284,7 +7333,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="241" spans="1:13">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>1</v>
       </c>
@@ -7307,7 +7356,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="242" spans="1:13">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>1</v>
       </c>
@@ -7333,7 +7382,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="243" spans="1:13">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>14</v>
       </c>
@@ -7347,7 +7396,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="244" spans="1:13">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>14</v>
       </c>
@@ -7361,7 +7410,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="245" spans="1:13">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>1</v>
       </c>
@@ -7387,7 +7436,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="246" spans="1:13">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>14</v>
       </c>
@@ -7401,7 +7450,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="247" spans="1:13">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>1</v>
       </c>
@@ -7424,7 +7473,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="248" spans="1:13">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>14</v>
       </c>
@@ -7438,7 +7487,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="249" spans="1:13">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>1</v>
       </c>
@@ -7464,7 +7513,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="250" spans="1:13">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>1</v>
       </c>
@@ -7487,7 +7536,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="251" spans="1:13">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>14</v>
       </c>
@@ -7501,7 +7550,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="252" spans="1:13">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>1</v>
       </c>
@@ -7527,7 +7576,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="253" spans="1:13">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>17</v>
       </c>
@@ -7544,7 +7593,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="254" spans="1:13">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>1</v>
       </c>
@@ -7567,7 +7616,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="255" spans="1:13">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>14</v>
       </c>
@@ -7581,7 +7630,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="256" spans="1:13">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>1</v>
       </c>
@@ -7607,7 +7656,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="257" spans="1:13">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>14</v>
       </c>
@@ -7618,7 +7667,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="258" spans="1:13">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>14</v>
       </c>
@@ -7629,7 +7678,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="259" spans="1:13">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>3</v>
       </c>
@@ -7646,7 +7695,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="260" spans="1:13">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>1</v>
       </c>
@@ -7669,7 +7718,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="261" spans="1:13">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>3</v>
       </c>
@@ -7686,7 +7735,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="262" spans="1:13">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>1</v>
       </c>
@@ -7709,7 +7758,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="263" spans="1:13">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>14</v>
       </c>
@@ -7723,7 +7772,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="264" spans="1:13">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>1</v>
       </c>
@@ -7749,7 +7798,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="265" spans="1:13">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>1</v>
       </c>
@@ -7772,7 +7821,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="266" spans="1:13">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>14</v>
       </c>
@@ -7786,7 +7835,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="267" spans="1:13">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>1</v>
       </c>
@@ -7812,7 +7861,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="268" spans="1:13">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>14</v>
       </c>
@@ -7826,7 +7875,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="269" spans="1:13">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>1</v>
       </c>
@@ -7852,7 +7901,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="270" spans="1:13">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>1</v>
       </c>
@@ -7875,7 +7924,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="271" spans="1:13">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>14</v>
       </c>
@@ -7889,7 +7938,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="272" spans="1:13">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>1</v>
       </c>
@@ -7915,7 +7964,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="273" spans="1:13">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>14</v>
       </c>
@@ -7929,7 +7978,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="274" spans="1:13">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>1</v>
       </c>
@@ -7952,7 +8001,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="275" spans="1:13">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>14</v>
       </c>
@@ -7966,7 +8015,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="276" spans="1:13">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>1</v>
       </c>
@@ -7992,7 +8041,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="277" spans="1:13">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>1</v>
       </c>
@@ -8015,7 +8064,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="278" spans="1:13">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>17</v>
       </c>
@@ -8032,7 +8081,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="279" spans="1:13">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>1</v>
       </c>
@@ -8058,7 +8107,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="280" spans="1:13">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>14</v>
       </c>
@@ -8072,7 +8121,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="281" spans="1:13">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>1</v>
       </c>
@@ -8095,7 +8144,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="282" spans="1:13">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>14</v>
       </c>
@@ -8109,7 +8158,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="283" spans="1:13">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>1</v>
       </c>
@@ -8135,7 +8184,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="284" spans="1:13">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>1</v>
       </c>
@@ -8158,7 +8207,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="285" spans="1:13">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>14</v>
       </c>
@@ -8172,7 +8221,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="286" spans="1:13">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>3</v>
       </c>
@@ -8189,7 +8238,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="287" spans="1:13">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>14</v>
       </c>
@@ -8203,7 +8252,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="288" spans="1:13">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>1</v>
       </c>
@@ -8226,7 +8275,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="289" spans="1:13">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>17</v>
       </c>
@@ -8243,7 +8292,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="290" spans="1:13">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>1</v>
       </c>
@@ -8269,7 +8318,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="291" spans="1:13">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>1</v>
       </c>
@@ -8292,7 +8341,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="292" spans="1:13">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>14</v>
       </c>
@@ -8306,7 +8355,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="293" spans="1:13">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>3</v>
       </c>
@@ -8323,7 +8372,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="294" spans="1:13">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>1</v>
       </c>
@@ -8346,7 +8395,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="295" spans="1:13">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>14</v>
       </c>
@@ -8360,7 +8409,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="296" spans="1:13">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>1</v>
       </c>
@@ -8386,7 +8435,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="297" spans="1:13">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>1</v>
       </c>
@@ -8409,7 +8458,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="298" spans="1:13">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>14</v>
       </c>
@@ -8423,7 +8472,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="299" spans="1:13">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>28</v>
       </c>
@@ -8440,7 +8489,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="300" spans="1:13">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>14</v>
       </c>
@@ -8454,7 +8503,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="301" spans="1:13">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>1</v>
       </c>
@@ -8480,7 +8529,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="302" spans="1:13">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>17</v>
       </c>
@@ -8497,7 +8546,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="303" spans="1:13">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>1</v>
       </c>
@@ -8520,7 +8569,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="304" spans="1:13">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>14</v>
       </c>
@@ -8534,7 +8583,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="305" spans="1:13">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>1</v>
       </c>
@@ -8560,7 +8609,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="306" spans="1:13">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>1</v>
       </c>
@@ -8583,7 +8632,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="307" spans="1:13">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>14</v>
       </c>
@@ -8597,7 +8646,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="308" spans="1:13">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>1</v>
       </c>
@@ -8623,7 +8672,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="309" spans="1:13">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>14</v>
       </c>
@@ -8637,7 +8686,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="310" spans="1:13">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>1</v>
       </c>
@@ -8660,7 +8709,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="311" spans="1:13">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>14</v>
       </c>
@@ -8674,7 +8723,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="312" spans="1:13">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>1</v>
       </c>
@@ -8700,7 +8749,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="313" spans="1:13">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>1</v>
       </c>
@@ -8723,7 +8772,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="314" spans="1:13">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>17</v>
       </c>
@@ -8740,7 +8789,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="315" spans="1:13">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>1</v>
       </c>
@@ -8766,7 +8815,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="316" spans="1:13">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>14</v>
       </c>
@@ -8780,7 +8829,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="317" spans="1:13">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>1</v>
       </c>
@@ -8803,7 +8852,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="318" spans="1:13">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>14</v>
       </c>
@@ -8817,7 +8866,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="319" spans="1:13">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>1</v>
       </c>
@@ -8843,7 +8892,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="320" spans="1:13">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>14</v>
       </c>
@@ -8857,7 +8906,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="321" spans="1:13">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>1</v>
       </c>
@@ -8883,7 +8932,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="322" spans="1:13">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>14</v>
       </c>
@@ -8897,7 +8946,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="323" spans="1:13">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>1</v>
       </c>
@@ -8920,7 +8969,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="324" spans="1:13">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>1</v>
       </c>
@@ -8946,7 +8995,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="325" spans="1:13">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>14</v>
       </c>
@@ -8960,7 +9009,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="326" spans="1:13">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>1</v>
       </c>
@@ -8983,7 +9032,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="327" spans="1:13">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>17</v>
       </c>
@@ -9000,7 +9049,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="328" spans="1:13">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>1</v>
       </c>
@@ -9026,7 +9075,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="329" spans="1:13">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>14</v>
       </c>
@@ -9040,7 +9089,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="330" spans="1:13">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>1</v>
       </c>
@@ -9063,7 +9112,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="331" spans="1:13">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>1</v>
       </c>
@@ -9089,7 +9138,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="332" spans="1:13">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>14</v>
       </c>
@@ -9103,7 +9152,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="333" spans="1:13">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>1</v>
       </c>
@@ -9126,7 +9175,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="334" spans="1:13">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>14</v>
       </c>
@@ -9140,7 +9189,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="335" spans="1:13">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>1</v>
       </c>
@@ -9166,7 +9215,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="336" spans="1:13">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>14</v>
       </c>
@@ -9180,7 +9229,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="337" spans="1:13">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>1</v>
       </c>
@@ -9206,7 +9255,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="338" spans="1:13">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>1</v>
       </c>
@@ -9229,7 +9278,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="339" spans="1:13">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>17</v>
       </c>
@@ -9246,7 +9295,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="340" spans="1:13">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>1</v>
       </c>
@@ -9272,7 +9321,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="341" spans="1:13">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>14</v>
       </c>
@@ -9286,7 +9335,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="342" spans="1:13">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>1</v>
       </c>
